--- a/Transect Time Sheet.xlsx
+++ b/Transect Time Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="18">
   <si>
     <t>observer</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3542,13 +3542,27 @@
       <c r="C98" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="4">
+        <v>0.44930555555555557</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -3560,505 +3574,1703 @@
       <c r="C99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="D99" s="1">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="4">
+        <v>0.45208333333333334</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="1">
+        <v>3</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="4">
+        <v>0.4548611111111111</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="4">
+        <v>0.45902777777777781</v>
+      </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="1">
+        <v>2</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="4">
+        <v>0.46111111111111108</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="1">
+        <v>3</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="4">
+        <v>0.46249999999999997</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="1">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="4">
+        <v>0.46875</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="1">
+        <v>3</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="1">
+        <v>2</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="4">
+        <v>0.47083333333333338</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="1">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="1">
+        <v>3</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="4">
+        <v>0.47361111111111115</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="1">
+        <v>3</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="4">
+        <v>0.47847222222222219</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108" s="4">
+        <v>0.48194444444444445</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="1">
+        <v>3</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="4">
+        <v>0.48402777777777778</v>
+      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="1">
+        <v>4</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" s="4">
+        <v>0.49583333333333335</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="1">
+        <v>4</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="4">
+        <v>0.49861111111111112</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="1">
+        <v>4</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="1">
+        <v>3</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" s="4">
+        <v>0.50069444444444444</v>
+      </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="1">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" s="4">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="1">
+        <v>4</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="1">
+        <v>2</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="4">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" s="4">
+        <v>0.50555555555555554</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="1">
+        <v>4</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="1">
+        <v>3</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="4">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115" s="4">
+        <v>0.50763888888888886</v>
+      </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="1">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="1">
+        <v>3</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="4">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116" s="4">
+        <v>0.50972222222222219</v>
+      </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="1">
+        <v>4</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="1">
+        <v>2</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="4">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117" s="4">
+        <v>0.51250000000000007</v>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="1">
+        <v>4</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" s="4">
+        <v>0.51458333333333328</v>
+      </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="1">
+        <v>4</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" s="4">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119" s="4">
+        <v>0.5180555555555556</v>
+      </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="1">
+        <v>4</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" s="4">
+        <v>0.5131944444444444</v>
+      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="1">
+        <v>4</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="1">
+        <v>3</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" s="4">
+        <v>0.52361111111111114</v>
+      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="1">
+        <v>4</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="1">
+        <v>3</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="4">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="4">
+        <v>0.43472222222222223</v>
+      </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="1">
+        <v>4</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="4">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J123" s="4">
+        <v>0.4368055555555555</v>
+      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="1">
+        <v>4</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="1">
+        <v>2</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="4">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J124" s="4">
+        <v>0.43888888888888888</v>
+      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="1">
+        <v>4</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="1">
+        <v>3</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="4">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" s="4">
+        <v>0.4548611111111111</v>
+      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="1">
+        <v>4</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="1">
+        <v>2</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126" s="4">
+        <v>0.45624999999999999</v>
+      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="1">
+        <v>4</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="4">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127" s="4">
+        <v>0.45833333333333331</v>
+      </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="1">
+        <v>4</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J128" s="4">
+        <v>0.4694444444444445</v>
+      </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="1">
+        <v>4</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="1">
+        <v>2</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" s="4">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J129" s="4">
+        <v>0.47152777777777777</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="1">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="1">
+        <v>3</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J130" s="4">
+        <v>0.47361111111111115</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="1">
+        <v>4</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="4">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131" s="4">
+        <v>0.48055555555555557</v>
+      </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
+      <c r="A132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="1">
+        <v>4</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="1">
+        <v>2</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="4">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J132" s="4">
+        <v>0.4826388888888889</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="A133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="1">
+        <v>4</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="1">
+        <v>3</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="4">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J133" s="4">
+        <v>0.48472222222222222</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="1">
+        <v>3</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="1">
+        <v>3</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J134" s="4">
+        <v>0.43958333333333338</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="1">
+        <v>3</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="1">
+        <v>2</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" s="4">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J135" s="4">
+        <v>0.44166666666666665</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="1">
+        <v>3</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" s="4">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J136" s="4">
+        <v>0.44444444444444442</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
+      <c r="A137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="1">
+        <v>3</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" s="4">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J137" s="4">
+        <v>0.44930555555555557</v>
+      </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
+      <c r="A138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="1">
+        <v>3</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="1">
+        <v>2</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" s="4">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J138" s="4">
+        <v>0.45069444444444445</v>
+      </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="A139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="1">
+        <v>3</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="1">
+        <v>3</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" s="4">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139" s="4">
+        <v>0.45277777777777778</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="1">
+        <v>3</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" s="1">
+        <v>3</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" s="4">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J140" s="4">
+        <v>0.4680555555555555</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="1">
+        <v>3</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" s="1">
+        <v>2</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J141" s="4">
+        <v>0.47013888888888888</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="1">
+        <v>3</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" s="4">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J142" s="4">
+        <v>0.47291666666666665</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="1">
+        <v>3</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="1">
+        <v>3</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" s="4">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J143" s="4">
+        <v>0.48541666666666666</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="1">
+        <v>3</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="1">
+        <v>2</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J144" s="4">
+        <v>0.48819444444444443</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="1">
+        <v>3</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" s="4">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J145" s="4">
+        <v>0.49583333333333335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="1"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="1"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="1"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="1"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="1"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
